--- a/Time_kill/ClassicalTK/singleplot_statistics.xlsx
+++ b/Time_kill/ClassicalTK/singleplot_statistics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="49">
   <si>
     <t>Identifier</t>
   </si>
@@ -220,7 +220,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6747">
+  <cellXfs count="7872">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
@@ -10614,6 +10614,3381 @@
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
@@ -20471,1187 +23846,1187 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="6372">
+      <c r="A1" t="s" s="7497">
         <v>48</v>
       </c>
-      <c r="B1" t="s" s="6373">
+      <c r="B1" t="s" s="7498">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="6374">
+      <c r="C1" t="s" s="7499">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="6375">
+      <c r="D1" t="s" s="7500">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="6376">
+      <c r="E1" t="s" s="7501">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="6377">
+      <c r="F1" t="s" s="7502">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="6378">
+      <c r="G1" t="s" s="7503">
         <v>5</v>
       </c>
-      <c r="H1" t="s" s="6379">
+      <c r="H1" t="s" s="7504">
         <v>6</v>
       </c>
-      <c r="I1" t="s" s="6380">
+      <c r="I1" t="s" s="7505">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="6381">
+      <c r="J1" t="s" s="7506">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="6382">
+      <c r="K1" t="s" s="7507">
         <v>9</v>
       </c>
-      <c r="L1" t="s" s="6383">
+      <c r="L1" t="s" s="7508">
         <v>10</v>
       </c>
-      <c r="M1" t="s" s="6384">
+      <c r="M1" t="s" s="7509">
         <v>11</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="6385">
+      <c r="A2" t="n" s="7510">
         <v>28.0</v>
       </c>
-      <c r="B2" t="s" s="6413">
+      <c r="B2" t="s" s="7538">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="6441">
+      <c r="C2" t="s" s="7566">
         <v>40</v>
       </c>
-      <c r="D2" t="n" s="6469">
-        <v>0.8265840326251692</v>
-      </c>
-      <c r="E2" t="n" s="6497">
-        <v>0.16253527791324762</v>
-      </c>
-      <c r="F2" t="n" s="6525">
-        <v>0.7267378317019118</v>
-      </c>
-      <c r="G2" t="n" s="6553">
-        <v>0.06565804988419797</v>
-      </c>
-      <c r="H2" t="n" s="6581">
-        <v>-2.49602506649882</v>
-      </c>
-      <c r="I2" t="n" s="6609">
-        <v>0.6680154153685812</v>
-      </c>
-      <c r="J2" t="n" s="6637">
-        <v>0.13333955782071777</v>
-      </c>
-      <c r="K2" t="n" s="6665">
-        <v>0.06970780704133657</v>
-      </c>
-      <c r="L2" t="n" s="6693">
-        <v>0.02996835799893607</v>
-      </c>
-      <c r="M2" t="n" s="6720">
-        <v>0.008617857787786959</v>
+      <c r="D2" t="n" s="7594">
+        <v>1.0670299451002914</v>
+      </c>
+      <c r="E2" t="n" s="7622">
+        <v>0.11501374321544774</v>
+      </c>
+      <c r="F2" t="n" s="7650">
+        <v>0.6701308731268507</v>
+      </c>
+      <c r="G2" t="n" s="7678">
+        <v>0.05755486756714492</v>
+      </c>
+      <c r="H2" t="n" s="7706">
+        <v>-1.928996295019849</v>
+      </c>
+      <c r="I2" t="n" s="7734">
+        <v>0.08710863040517783</v>
+      </c>
+      <c r="J2" t="n" s="7762">
+        <v>0.08429179840863336</v>
+      </c>
+      <c r="K2" t="n" s="7790">
+        <v>0.009615754545065852</v>
+      </c>
+      <c r="L2" t="n" s="7818">
+        <v>0.0312938031396309</v>
+      </c>
+      <c r="M2" t="n" s="7845">
+        <v>0.004726019935981566</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n" s="6386">
+      <c r="A3" t="n" s="7511">
         <v>27.0</v>
       </c>
-      <c r="B3" t="s" s="6414">
+      <c r="B3" t="s" s="7539">
         <v>13</v>
       </c>
-      <c r="C3" t="s" s="6442">
+      <c r="C3" t="s" s="7567">
         <v>40</v>
       </c>
-      <c r="D3" t="n" s="6470">
-        <v>0.8863191073819007</v>
-      </c>
-      <c r="E3" t="n" s="6498">
-        <v>0.08498641907201836</v>
-      </c>
-      <c r="F3" t="n" s="6526">
-        <v>0.6710428103907703</v>
-      </c>
-      <c r="G3" t="n" s="6554">
-        <v>0.053980159452047954</v>
-      </c>
-      <c r="H3" t="n" s="6582">
-        <v>-2.1969985458525803</v>
-      </c>
-      <c r="I3" t="n" s="6610">
-        <v>0.1390834325718017</v>
-      </c>
-      <c r="J3" t="n" s="6638">
-        <v>0.15751612237061527</v>
-      </c>
-      <c r="K3" t="n" s="6666">
-        <v>0.02139230276360839</v>
-      </c>
-      <c r="L3" t="n" s="6694">
-        <v>0.04132191463049482</v>
-      </c>
-      <c r="M3" t="n" s="6721">
-        <v>0.004743454244980795</v>
+      <c r="D3" t="n" s="7595">
+        <v>0.91363351214403</v>
+      </c>
+      <c r="E3" t="n" s="7623">
+        <v>0.05659413119139794</v>
+      </c>
+      <c r="F3" t="n" s="7651">
+        <v>0.6625815357010827</v>
+      </c>
+      <c r="G3" t="n" s="7679">
+        <v>0.04428085290959064</v>
+      </c>
+      <c r="H3" t="n" s="7707">
+        <v>-2.1426303348926776</v>
+      </c>
+      <c r="I3" t="n" s="7735">
+        <v>0.05298378143846039</v>
+      </c>
+      <c r="J3" t="n" s="7763">
+        <v>0.1503286275669864</v>
+      </c>
+      <c r="K3" t="n" s="7791">
+        <v>0.010894487744800032</v>
+      </c>
+      <c r="L3" t="n" s="7819">
+        <v>0.04160549425044908</v>
+      </c>
+      <c r="M3" t="n" s="7846">
+        <v>0.004103359774153988</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="6387">
+      <c r="A4" t="n" s="7512">
         <v>26.0</v>
       </c>
-      <c r="B4" t="s" s="6415">
+      <c r="B4" t="s" s="7540">
         <v>14</v>
       </c>
-      <c r="C4" t="s" s="6443">
+      <c r="C4" t="s" s="7568">
         <v>40</v>
       </c>
-      <c r="D4" t="n" s="6471">
-        <v>0.9793625468154369</v>
-      </c>
-      <c r="E4" t="n" s="6499">
-        <v>0.20143582593410816</v>
-      </c>
-      <c r="F4" t="n" s="6527">
-        <v>0.49423476468304367</v>
-      </c>
-      <c r="G4" t="n" s="6555">
-        <v>0.10317711805405798</v>
-      </c>
-      <c r="H4" t="n" s="6583">
-        <v>-2.4113835165393103</v>
-      </c>
-      <c r="I4" t="n" s="6611">
-        <v>0.32294877507986797</v>
-      </c>
-      <c r="J4" t="n" s="6639">
-        <v>0.23103264994700884</v>
-      </c>
-      <c r="K4" t="n" s="6667">
-        <v>0.06469181307205549</v>
-      </c>
-      <c r="L4" t="n" s="6695">
-        <v>0.04579684716081919</v>
-      </c>
-      <c r="M4" t="n" s="6722">
-        <v>0.012169649513099626</v>
+      <c r="D4" t="n" s="7596">
+        <v>1.0986006332998999</v>
+      </c>
+      <c r="E4" t="n" s="7624">
+        <v>0.193823938639432</v>
+      </c>
+      <c r="F4" t="n" s="7652">
+        <v>0.4696626435054397</v>
+      </c>
+      <c r="G4" t="n" s="7680">
+        <v>0.09867922065452497</v>
+      </c>
+      <c r="H4" t="n" s="7708">
+        <v>-2.167796557145599</v>
+      </c>
+      <c r="I4" t="n" s="7736">
+        <v>0.15578255146018913</v>
+      </c>
+      <c r="J4" t="n" s="7764">
+        <v>0.19113498722202812</v>
+      </c>
+      <c r="K4" t="n" s="7792">
+        <v>0.033849562796469154</v>
+      </c>
+      <c r="L4" t="n" s="7820">
+        <v>0.047503247060740196</v>
+      </c>
+      <c r="M4" t="n" s="7847">
+        <v>0.012828154718232095</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n" s="6388">
+      <c r="A5" t="n" s="7513">
         <v>25.0</v>
       </c>
-      <c r="B5" t="s" s="6416">
+      <c r="B5" t="s" s="7541">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="6444">
+      <c r="C5" t="s" s="7569">
         <v>40</v>
       </c>
-      <c r="D5" t="n" s="6472">
-        <v>2.1648578906796514</v>
-      </c>
-      <c r="E5" t="n" s="6500">
-        <v>0.6347498140884515</v>
-      </c>
-      <c r="F5" t="n" s="6528">
-        <v>0.45378767540065507</v>
-      </c>
-      <c r="G5" t="n" s="6556">
-        <v>0.03829741112557395</v>
-      </c>
-      <c r="H5" t="n" s="6584">
-        <v>-0.7906643568993135</v>
-      </c>
-      <c r="I5" t="n" s="6612">
-        <v>0.139260340601801</v>
-      </c>
-      <c r="J5" t="n" s="6640">
-        <v>0.0402987230854175</v>
-      </c>
-      <c r="K5" t="n" s="6668">
-        <v>0.007271152514641483</v>
-      </c>
-      <c r="L5" t="n" s="6696">
-        <v>0.0311819419450967</v>
-      </c>
-      <c r="M5" t="n" s="6723">
-        <v>0.004631320689792195</v>
+      <c r="D5" t="n" s="7597">
+        <v>0.8529300613710962</v>
+      </c>
+      <c r="E5" t="n" s="7625">
+        <v>0.19890836767664252</v>
+      </c>
+      <c r="F5" t="n" s="7653">
+        <v>0.5076489439603136</v>
+      </c>
+      <c r="G5" t="n" s="7681">
+        <v>0.06588665447128045</v>
+      </c>
+      <c r="H5" t="n" s="7709">
+        <v>-2.754994741532745</v>
+      </c>
+      <c r="I5" t="n" s="7737">
+        <v>0.8467432299903396</v>
+      </c>
+      <c r="J5" t="n" s="7765">
+        <v>0.23889317292068982</v>
+      </c>
+      <c r="K5" t="n" s="7793">
+        <v>0.15878951143586856</v>
+      </c>
+      <c r="L5" t="n" s="7821">
+        <v>0.03288421056561126</v>
+      </c>
+      <c r="M5" t="n" s="7848">
+        <v>0.01058534881619071</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="6389">
+      <c r="A6" t="n" s="7514">
         <v>24.0</v>
       </c>
-      <c r="B6" t="s" s="6417">
+      <c r="B6" t="s" s="7542">
         <v>16</v>
       </c>
-      <c r="C6" t="s" s="6445">
+      <c r="C6" t="s" s="7570">
         <v>41</v>
       </c>
-      <c r="D6" t="n" s="6473">
-        <v>1.6815277609003867</v>
-      </c>
-      <c r="E6" t="n" s="6501">
-        <v>0.29913141346842953</v>
-      </c>
-      <c r="F6" t="n" s="6529">
-        <v>0.7733461125556702</v>
-      </c>
-      <c r="G6" t="n" s="6557">
-        <v>0.08233381064622204</v>
-      </c>
-      <c r="H6" t="n" s="6585">
-        <v>-2.105537697435033</v>
-      </c>
-      <c r="I6" t="n" s="6613">
-        <v>0.1280945361665009</v>
-      </c>
-      <c r="J6" t="n" s="6641">
-        <v>7.178294416199645E-4</v>
-      </c>
-      <c r="K6" t="n" s="6669">
-        <v>7.871527383317901E-5</v>
-      </c>
-      <c r="L6" t="n" s="6697">
-        <v>3.9567118152367164E-4</v>
-      </c>
-      <c r="M6" t="n" s="6724">
-        <v>4.891381549572728E-5</v>
+      <c r="D6" t="n" s="7598">
+        <v>1.6278162684325017</v>
+      </c>
+      <c r="E6" t="n" s="7626">
+        <v>0.20966688549917742</v>
+      </c>
+      <c r="F6" t="n" s="7654">
+        <v>0.779439921110001</v>
+      </c>
+      <c r="G6" t="n" s="7682">
+        <v>0.07104198705483343</v>
+      </c>
+      <c r="H6" t="n" s="7710">
+        <v>-2.1400209872777296</v>
+      </c>
+      <c r="I6" t="n" s="7738">
+        <v>0.0698069612518543</v>
+      </c>
+      <c r="J6" t="n" s="7766">
+        <v>7.314577616485698E-4</v>
+      </c>
+      <c r="K6" t="n" s="7794">
+        <v>6.15129198874014E-5</v>
+      </c>
+      <c r="L6" t="n" s="7822">
+        <v>3.933025715768718E-4</v>
+      </c>
+      <c r="M6" t="n" s="7849">
+        <v>4.3109410498901984E-5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n" s="6390">
+      <c r="A7" t="n" s="7515">
         <v>23.0</v>
       </c>
-      <c r="B7" t="s" s="6418">
+      <c r="B7" t="s" s="7543">
         <v>17</v>
       </c>
-      <c r="C7" t="s" s="6446">
+      <c r="C7" t="s" s="7571">
         <v>41</v>
       </c>
-      <c r="D7" t="n" s="6474">
+      <c r="D7" t="n" s="7599">
         <v>2.472039803080087</v>
       </c>
-      <c r="E7" t="n" s="6502">
+      <c r="E7" t="n" s="7627">
         <v>0.4609114866811622</v>
       </c>
-      <c r="F7" t="n" s="6530">
+      <c r="F7" t="n" s="7655">
         <v>0.5393702506011753</v>
       </c>
-      <c r="G7" t="n" s="6558">
+      <c r="G7" t="n" s="7683">
         <v>0.0834816393888076</v>
       </c>
-      <c r="H7" t="n" s="6586">
+      <c r="H7" t="n" s="7711">
         <v>-1.8794922957167186</v>
       </c>
-      <c r="I7" t="n" s="6614">
+      <c r="I7" t="n" s="7739">
         <v>0.0691172708854056</v>
       </c>
-      <c r="J7" t="n" s="6642">
+      <c r="J7" t="n" s="7767">
         <v>0.002871637599670377</v>
       </c>
-      <c r="K7" t="n" s="6670">
+      <c r="K7" t="n" s="7795">
         <v>2.4161969668719133E-4</v>
       </c>
-      <c r="L7" t="n" s="6698">
+      <c r="L7" t="n" s="7823">
         <v>0.0017330671041943173</v>
       </c>
-      <c r="M7" t="n" s="6725">
+      <c r="M7" t="n" s="7850">
         <v>2.2044616150337172E-4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n" s="6391">
+      <c r="A8" t="n" s="7516">
         <v>22.0</v>
       </c>
-      <c r="B8" t="s" s="6419">
+      <c r="B8" t="s" s="7544">
         <v>18</v>
       </c>
-      <c r="C8" t="s" s="6447">
+      <c r="C8" t="s" s="7572">
         <v>41</v>
       </c>
-      <c r="D8" t="n" s="6475">
-        <v>1.619701885995845</v>
-      </c>
-      <c r="E8" t="n" s="6503">
-        <v>0.28300280192747157</v>
-      </c>
-      <c r="F8" t="n" s="6531">
-        <v>0.4843557337104087</v>
-      </c>
-      <c r="G8" t="n" s="6559">
-        <v>0.05674699837089041</v>
-      </c>
-      <c r="H8" t="n" s="6587">
-        <v>-2.2033367952556375</v>
-      </c>
-      <c r="I8" t="n" s="6615">
-        <v>0.21014083099396547</v>
-      </c>
-      <c r="J8" t="n" s="6643">
-        <v>0.002050025942276944</v>
-      </c>
-      <c r="K8" t="n" s="6671">
-        <v>3.060133271684292E-4</v>
-      </c>
-      <c r="L8" t="n" s="6699">
-        <v>8.045690975468199E-4</v>
-      </c>
-      <c r="M8" t="n" s="6726">
-        <v>1.0628744831332214E-4</v>
+      <c r="D8" t="n" s="7600">
+        <v>1.4142963035042992</v>
+      </c>
+      <c r="E8" t="n" s="7628">
+        <v>0.17835974479342287</v>
+      </c>
+      <c r="F8" t="n" s="7656">
+        <v>0.501048968415781</v>
+      </c>
+      <c r="G8" t="n" s="7684">
+        <v>0.057701042924426856</v>
+      </c>
+      <c r="H8" t="n" s="7712">
+        <v>-2.4113330668292834</v>
+      </c>
+      <c r="I8" t="n" s="7740">
+        <v>0.10841146831950095</v>
+      </c>
+      <c r="J8" t="n" s="7768">
+        <v>0.002335937568345756</v>
+      </c>
+      <c r="K8" t="n" s="7796">
+        <v>2.4348831810752956E-4</v>
+      </c>
+      <c r="L8" t="n" s="7824">
+        <v>7.690880001674943E-4</v>
+      </c>
+      <c r="M8" t="n" s="7851">
+        <v>1.0663256643558658E-4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n" s="6392">
+      <c r="A9" t="n" s="7517">
         <v>21.0</v>
       </c>
-      <c r="B9" t="s" s="6420">
+      <c r="B9" t="s" s="7545">
         <v>19</v>
       </c>
-      <c r="C9" t="s" s="6448">
+      <c r="C9" t="s" s="7573">
         <v>42</v>
       </c>
-      <c r="D9" t="n" s="6476">
-        <v>2.9314441093933525</v>
-      </c>
-      <c r="E9" t="n" s="6504">
-        <v>1.0558593090064021</v>
-      </c>
-      <c r="F9" t="n" s="6532">
-        <v>0.5421516288763226</v>
-      </c>
-      <c r="G9" t="n" s="6560">
-        <v>0.028975978529875598</v>
-      </c>
-      <c r="H9" t="n" s="6588">
-        <v>-0.18833648466874375</v>
-      </c>
-      <c r="I9" t="n" s="6616">
-        <v>0.05730373273735775</v>
-      </c>
-      <c r="J9" t="n" s="6644">
-        <v>0.13605398714439174</v>
-      </c>
-      <c r="K9" t="n" s="6672">
-        <v>0.018441960383215394</v>
-      </c>
-      <c r="L9" t="n" s="6700">
-        <v>0.19514298580041683</v>
-      </c>
-      <c r="M9" t="n" s="6727">
-        <v>0.03236229345512765</v>
+      <c r="D9" t="n" s="7601">
+        <v>3.1519283400841265</v>
+      </c>
+      <c r="E9" t="n" s="7629">
+        <v>1.04148440037455</v>
+      </c>
+      <c r="F9" t="n" s="7657">
+        <v>0.5407332321019855</v>
+      </c>
+      <c r="G9" t="n" s="7685">
+        <v>0.02806744986543383</v>
+      </c>
+      <c r="H9" t="n" s="7713">
+        <v>-0.1514957270726357</v>
+      </c>
+      <c r="I9" t="n" s="7741">
+        <v>0.03348150697526751</v>
+      </c>
+      <c r="J9" t="n" s="7769">
+        <v>0.13085126118115667</v>
+      </c>
+      <c r="K9" t="n" s="7797">
+        <v>0.01756938247009406</v>
+      </c>
+      <c r="L9" t="n" s="7825">
+        <v>0.19592671714196544</v>
+      </c>
+      <c r="M9" t="n" s="7852">
+        <v>0.027512146829389364</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n" s="6393">
+      <c r="A10" t="n" s="7518">
         <v>20.0</v>
       </c>
-      <c r="B10" t="s" s="6421">
+      <c r="B10" t="s" s="7546">
         <v>20</v>
       </c>
-      <c r="C10" t="s" s="6449">
+      <c r="C10" t="s" s="7574">
         <v>42</v>
       </c>
-      <c r="D10" t="n" s="6477">
-        <v>12.100168289983001</v>
-      </c>
-      <c r="E10" t="n" s="6505">
-        <v>98.74123458906058</v>
-      </c>
-      <c r="F10" t="n" s="6533">
-        <v>0.4478801370022099</v>
-      </c>
-      <c r="G10" t="n" s="6561">
-        <v>0.020236768517984293</v>
-      </c>
-      <c r="H10" t="n" s="6589">
-        <v>-0.12758742688003077</v>
-      </c>
-      <c r="I10" t="n" s="6617">
-        <v>0.028769389469613122</v>
-      </c>
-      <c r="J10" t="n" s="6645">
-        <v>0.07916284278247175</v>
-      </c>
-      <c r="K10" t="n" s="6673">
-        <v>0.008876789299381573</v>
-      </c>
-      <c r="L10" t="n" s="6701">
-        <v>0.08781957417108996</v>
-      </c>
-      <c r="M10" t="n" s="6728">
-        <v>0.08389489736053231</v>
+      <c r="D10" t="n" s="7602">
+        <v>3.343091867494475</v>
+      </c>
+      <c r="E10" t="n" s="7630">
+        <v>1.9301756291929137</v>
+      </c>
+      <c r="F10" t="n" s="7658">
+        <v>0.4542539288934462</v>
+      </c>
+      <c r="G10" t="n" s="7686">
+        <v>0.034996109617308625</v>
+      </c>
+      <c r="H10" t="n" s="7714">
+        <v>-0.21173575429750613</v>
+      </c>
+      <c r="I10" t="n" s="7742">
+        <v>0.04468264897996235</v>
+      </c>
+      <c r="J10" t="n" s="7770">
+        <v>0.08875326676129255</v>
+      </c>
+      <c r="K10" t="n" s="7798">
+        <v>0.014027500638992546</v>
+      </c>
+      <c r="L10" t="n" s="7826">
+        <v>0.11151810855737618</v>
+      </c>
+      <c r="M10" t="n" s="7853">
+        <v>0.026822219901109796</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n" s="6394">
+      <c r="A11" t="n" s="7519">
         <v>19.0</v>
       </c>
-      <c r="B11" t="s" s="6422">
+      <c r="B11" t="s" s="7547">
         <v>21</v>
       </c>
-      <c r="C11" t="s" s="6450">
+      <c r="C11" t="s" s="7575">
         <v>42</v>
       </c>
-      <c r="D11" t="n" s="6478">
-        <v>3.393429337019033</v>
-      </c>
-      <c r="E11" t="n" s="6506">
-        <v>1.1103804307412664</v>
-      </c>
-      <c r="F11" t="n" s="6534">
-        <v>0.5596365466376526</v>
-      </c>
-      <c r="G11" t="n" s="6562">
-        <v>0.023052992743511174</v>
-      </c>
-      <c r="H11" t="n" s="6590">
-        <v>-0.17090270588930614</v>
-      </c>
-      <c r="I11" t="n" s="6618">
-        <v>0.04593357937395097</v>
-      </c>
-      <c r="J11" t="n" s="6646">
-        <v>0.14616911075832567</v>
-      </c>
-      <c r="K11" t="n" s="6674">
-        <v>0.014508505272538875</v>
-      </c>
-      <c r="L11" t="n" s="6702">
-        <v>0.2073317378757518</v>
-      </c>
-      <c r="M11" t="n" s="6729">
-        <v>0.02718148742207562</v>
+      <c r="D11" t="n" s="7603">
+        <v>3.674271087024024</v>
+      </c>
+      <c r="E11" t="n" s="7631">
+        <v>1.3664666361165039</v>
+      </c>
+      <c r="F11" t="n" s="7659">
+        <v>0.5581772617730564</v>
+      </c>
+      <c r="G11" t="n" s="7687">
+        <v>0.02579444234333017</v>
+      </c>
+      <c r="H11" t="n" s="7715">
+        <v>-0.13428946190906887</v>
+      </c>
+      <c r="I11" t="n" s="7743">
+        <v>0.03119338055452971</v>
+      </c>
+      <c r="J11" t="n" s="7771">
+        <v>0.1417326229717665</v>
+      </c>
+      <c r="K11" t="n" s="7799">
+        <v>0.01654267552853767</v>
+      </c>
+      <c r="L11" t="n" s="7827">
+        <v>0.20886476695693607</v>
+      </c>
+      <c r="M11" t="n" s="7854">
+        <v>0.026969504686503745</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n" s="6395">
+      <c r="A12" t="n" s="7520">
         <v>18.0</v>
       </c>
-      <c r="B12" t="s" s="6423">
+      <c r="B12" t="s" s="7548">
         <v>22</v>
       </c>
-      <c r="C12" t="s" s="6451">
+      <c r="C12" t="s" s="7576">
         <v>43</v>
       </c>
-      <c r="D12" t="n" s="6479">
-        <v>3.9833917950342617</v>
-      </c>
-      <c r="E12" t="n" s="6507">
-        <v>0.40442204663894293</v>
-      </c>
-      <c r="F12" t="n" s="6535">
-        <v>0.6811779545913289</v>
-      </c>
-      <c r="G12" t="n" s="6563">
-        <v>0.022818903363802667</v>
-      </c>
-      <c r="H12" t="n" s="6591">
-        <v>-0.686294859461983</v>
-      </c>
-      <c r="I12" t="n" s="6619">
-        <v>0.022684180619526477</v>
-      </c>
-      <c r="J12" t="n" s="6647">
-        <v>2.125729839276931E-5</v>
-      </c>
-      <c r="K12" t="n" s="6675">
-        <v>8.65681455738725E-7</v>
-      </c>
-      <c r="L12" t="n" s="6703">
-        <v>2.1217398860130742E-5</v>
-      </c>
-      <c r="M12" t="n" s="6730">
-        <v>8.637404655874607E-7</v>
+      <c r="D12" t="n" s="7604">
+        <v>3.8689690670911077</v>
+      </c>
+      <c r="E12" t="n" s="7632">
+        <v>0.42343718583166445</v>
+      </c>
+      <c r="F12" t="n" s="7660">
+        <v>0.6817202917872489</v>
+      </c>
+      <c r="G12" t="n" s="7688">
+        <v>0.025325072969965275</v>
+      </c>
+      <c r="H12" t="n" s="7716">
+        <v>-0.7077334700383824</v>
+      </c>
+      <c r="I12" t="n" s="7744">
+        <v>0.020323152689246077</v>
+      </c>
+      <c r="J12" t="n" s="7772">
+        <v>2.154939531728559E-5</v>
+      </c>
+      <c r="K12" t="n" s="7800">
+        <v>9.406841484468423E-7</v>
+      </c>
+      <c r="L12" t="n" s="7828">
+        <v>2.1341822825101604E-5</v>
+      </c>
+      <c r="M12" t="n" s="7855">
+        <v>9.31504474218771E-7</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n" s="6396">
+      <c r="A13" t="n" s="7521">
         <v>17.0</v>
       </c>
-      <c r="B13" t="s" s="6424">
+      <c r="B13" t="s" s="7549">
         <v>23</v>
       </c>
-      <c r="C13" t="s" s="6452">
+      <c r="C13" t="s" s="7577">
         <v>43</v>
       </c>
-      <c r="D13" t="n" s="6480">
-        <v>16.35768286888854</v>
-      </c>
-      <c r="E13" t="n" s="6508">
-        <v>70.11883110865101</v>
-      </c>
-      <c r="F13" t="n" s="6536">
-        <v>0.6571998296856384</v>
-      </c>
-      <c r="G13" t="n" s="6564">
-        <v>0.03677563682766551</v>
-      </c>
-      <c r="H13" t="n" s="6592">
-        <v>-1.213072668812381</v>
-      </c>
-      <c r="I13" t="n" s="6620">
-        <v>0.06880318385005357</v>
-      </c>
-      <c r="J13" t="n" s="6648">
-        <v>0.0012313544994447256</v>
-      </c>
-      <c r="K13" t="n" s="6676">
-        <v>8.104241636107749E-5</v>
-      </c>
-      <c r="L13" t="n" s="6704">
-        <v>0.0011860692665618274</v>
-      </c>
-      <c r="M13" t="n" s="6731">
-        <v>2.672864224660969E-4</v>
+      <c r="D13" t="n" s="7605">
+        <v>12.514198586648407</v>
+      </c>
+      <c r="E13" t="n" s="7633">
+        <v>21.27372010572646</v>
+      </c>
+      <c r="F13" t="n" s="7661">
+        <v>0.6572231853477203</v>
+      </c>
+      <c r="G13" t="n" s="7689">
+        <v>0.03617502621499645</v>
+      </c>
+      <c r="H13" t="n" s="7717">
+        <v>-1.2575597671552154</v>
+      </c>
+      <c r="I13" t="n" s="7745">
+        <v>0.04786811422419699</v>
+      </c>
+      <c r="J13" t="n" s="7773">
+        <v>0.0012308915147961996</v>
+      </c>
+      <c r="K13" t="n" s="7801">
+        <v>3.779908366343816E-5</v>
+      </c>
+      <c r="L13" t="n" s="7829">
+        <v>0.00116869206941554</v>
+      </c>
+      <c r="M13" t="n" s="7856">
+        <v>1.3441827187264205E-4</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n" s="6397">
+      <c r="A14" t="n" s="7522">
         <v>16.0</v>
       </c>
-      <c r="B14" t="s" s="6425">
+      <c r="B14" t="s" s="7550">
         <v>24</v>
       </c>
-      <c r="C14" t="s" s="6453">
+      <c r="C14" t="s" s="7578">
         <v>43</v>
       </c>
-      <c r="D14" t="n" s="6481">
-        <v>3.5011106057767694</v>
-      </c>
-      <c r="E14" t="n" s="6509">
-        <v>0.41626590246181794</v>
-      </c>
-      <c r="F14" t="n" s="6537">
-        <v>0.47474941962606104</v>
-      </c>
-      <c r="G14" t="n" s="6565">
-        <v>0.025215217249132935</v>
-      </c>
-      <c r="H14" t="n" s="6593">
-        <v>-1.3239022358714785</v>
-      </c>
-      <c r="I14" t="n" s="6621">
-        <v>0.04748659111166114</v>
-      </c>
-      <c r="J14" t="n" s="6649">
-        <v>8.136514227970365E-5</v>
-      </c>
-      <c r="K14" t="n" s="6677">
-        <v>3.785623621248141E-6</v>
-      </c>
-      <c r="L14" t="n" s="6705">
-        <v>6.070494203222656E-5</v>
-      </c>
-      <c r="M14" t="n" s="6732">
-        <v>2.9648847932391534E-6</v>
+      <c r="D14" t="n" s="7606">
+        <v>3.343311862244583</v>
+      </c>
+      <c r="E14" t="n" s="7634">
+        <v>0.4075862713074701</v>
+      </c>
+      <c r="F14" t="n" s="7662">
+        <v>0.4760250308102527</v>
+      </c>
+      <c r="G14" t="n" s="7690">
+        <v>0.028284644864503307</v>
+      </c>
+      <c r="H14" t="n" s="7718">
+        <v>-1.3598602550662446</v>
+      </c>
+      <c r="I14" t="n" s="7746">
+        <v>0.03559060568806511</v>
+      </c>
+      <c r="J14" t="n" s="7774">
+        <v>8.294812736193265E-5</v>
+      </c>
+      <c r="K14" t="n" s="7802">
+        <v>3.933663651025219E-6</v>
+      </c>
+      <c r="L14" t="n" s="7830">
+        <v>6.059759856891986E-5</v>
+      </c>
+      <c r="M14" t="n" s="7857">
+        <v>3.3826084624395584E-6</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n" s="6398">
+      <c r="A15" t="n" s="7523">
         <v>15.0</v>
       </c>
-      <c r="B15" t="s" s="6426">
+      <c r="B15" t="s" s="7551">
         <v>25</v>
       </c>
-      <c r="C15" t="s" s="6454">
+      <c r="C15" t="s" s="7579">
         <v>43</v>
       </c>
-      <c r="D15" t="n" s="6482">
-        <v>3.598888661100844</v>
-      </c>
-      <c r="E15" t="n" s="6510">
-        <v>1.0869361482267847</v>
-      </c>
-      <c r="F15" t="n" s="6538">
-        <v>0.7313827598922562</v>
-      </c>
-      <c r="G15" t="n" s="6566">
-        <v>0.07431039887677247</v>
-      </c>
-      <c r="H15" t="n" s="6594">
-        <v>-1.6125573944326024</v>
-      </c>
-      <c r="I15" t="n" s="6622">
-        <v>0.07804846748862217</v>
-      </c>
-      <c r="J15" t="n" s="6650">
-        <v>1.2790259522530288E-4</v>
-      </c>
-      <c r="K15" t="n" s="6678">
-        <v>1.0380727168975712E-5</v>
-      </c>
-      <c r="L15" t="n" s="6706">
-        <v>1.0267606568892216E-4</v>
-      </c>
-      <c r="M15" t="n" s="6733">
-        <v>1.098244687437085E-5</v>
+      <c r="D15" t="n" s="7607">
+        <v>2.7381886890316713</v>
+      </c>
+      <c r="E15" t="n" s="7635">
+        <v>1.4599320013634332</v>
+      </c>
+      <c r="F15" t="n" s="7663">
+        <v>0.6740714917877245</v>
+      </c>
+      <c r="G15" t="n" s="7691">
+        <v>0.14979664629563305</v>
+      </c>
+      <c r="H15" t="n" s="7719">
+        <v>-1.7723540413967123</v>
+      </c>
+      <c r="I15" t="n" s="7747">
+        <v>0.10821063207004414</v>
+      </c>
+      <c r="J15" t="n" s="7775">
+        <v>1.398750278899202E-4</v>
+      </c>
+      <c r="K15" t="n" s="7803">
+        <v>1.86997068419317E-5</v>
+      </c>
+      <c r="L15" t="n" s="7831">
+        <v>9.826772436059773E-5</v>
+      </c>
+      <c r="M15" t="n" s="7858">
+        <v>1.9605164044229097E-5</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n" s="6399">
+      <c r="A16" t="n" s="7524">
         <v>14.0</v>
       </c>
-      <c r="B16" t="s" s="6427">
+      <c r="B16" t="s" s="7552">
         <v>26</v>
       </c>
-      <c r="C16" t="s" s="6455">
+      <c r="C16" t="s" s="7580">
         <v>44</v>
       </c>
-      <c r="D16" t="n" s="6483">
+      <c r="D16" t="n" s="7608">
         <v>0.7220398034353477</v>
       </c>
-      <c r="E16" t="n" s="6511">
+      <c r="E16" t="n" s="7636">
         <v>0.48504080736728394</v>
       </c>
-      <c r="F16" t="n" s="6539">
+      <c r="F16" t="n" s="7664">
         <v>0.7894027974055783</v>
       </c>
-      <c r="G16" t="n" s="6567">
+      <c r="G16" t="n" s="7692">
         <v>0.24174954143580762</v>
       </c>
-      <c r="H16" t="n" s="6595">
+      <c r="H16" t="n" s="7720">
         <v>-1.6727335303206907</v>
       </c>
-      <c r="I16" t="n" s="6623">
+      <c r="I16" t="n" s="7748">
         <v>1.00803831105739</v>
       </c>
-      <c r="J16" t="n" s="6651">
+      <c r="J16" t="n" s="7776">
         <v>1.5704826750082495</v>
       </c>
-      <c r="K16" t="n" s="6679">
+      <c r="K16" t="n" s="7804">
         <v>2.25993364082969</v>
       </c>
-      <c r="L16" t="n" s="6707">
+      <c r="L16" t="n" s="7832">
         <v>0.555081916236457</v>
       </c>
-      <c r="M16" t="n" s="6734">
+      <c r="M16" t="n" s="7859">
         <v>0.5099762936866502</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n" s="6400">
+      <c r="A17" t="n" s="7525">
         <v>13.0</v>
       </c>
-      <c r="B17" t="s" s="6428">
+      <c r="B17" t="s" s="7553">
         <v>27</v>
       </c>
-      <c r="C17" t="s" s="6456">
+      <c r="C17" t="s" s="7581">
         <v>44</v>
       </c>
-      <c r="D17" t="n" s="6484">
+      <c r="D17" t="n" s="7609">
         <v>0.39363835345775183</v>
       </c>
-      <c r="E17" t="n" s="6512">
+      <c r="E17" t="n" s="7637">
         <v>0.2158215714409657</v>
       </c>
-      <c r="F17" t="n" s="6540">
+      <c r="F17" t="n" s="7665">
         <v>0.947207049339593</v>
       </c>
-      <c r="G17" t="n" s="6568">
+      <c r="G17" t="n" s="7693">
         <v>0.31820818839323123</v>
       </c>
-      <c r="H17" t="n" s="6596">
+      <c r="H17" t="n" s="7721">
         <v>-3.622508857702677</v>
       </c>
-      <c r="I17" t="n" s="6624">
+      <c r="I17" t="n" s="7749">
         <v>3.6369585258715134</v>
       </c>
-      <c r="J17" t="n" s="6652">
+      <c r="J17" t="n" s="7777">
         <v>11.437026270341839</v>
       </c>
-      <c r="K17" t="n" s="6680">
+      <c r="K17" t="n" s="7805">
         <v>42.69652763458148</v>
       </c>
-      <c r="L17" t="n" s="6708">
+      <c r="L17" t="n" s="7833">
         <v>0.37876034838610856</v>
       </c>
-      <c r="M17" t="n" s="6735">
+      <c r="M17" t="n" s="7860">
         <v>0.8129365134804711</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n" s="6401">
+      <c r="A18" t="n" s="7526">
         <v>12.0</v>
       </c>
-      <c r="B18" t="s" s="6429">
+      <c r="B18" t="s" s="7554">
         <v>28</v>
       </c>
-      <c r="C18" t="s" s="6457">
+      <c r="C18" t="s" s="7582">
         <v>44</v>
       </c>
-      <c r="D18" t="n" s="6485">
+      <c r="D18" t="n" s="7610">
         <v>0.47517701164607096</v>
       </c>
-      <c r="E18" t="n" s="6513">
+      <c r="E18" t="n" s="7638">
         <v>0.11959104818339966</v>
       </c>
-      <c r="F18" t="n" s="6541">
+      <c r="F18" t="n" s="7666">
         <v>1.0725863721671596</v>
       </c>
-      <c r="G18" t="n" s="6569">
+      <c r="G18" t="n" s="7694">
         <v>0.1835351402636181</v>
       </c>
-      <c r="H18" t="n" s="6597">
+      <c r="H18" t="n" s="7722">
         <v>-2.2851263713606116</v>
       </c>
-      <c r="I18" t="n" s="6625">
+      <c r="I18" t="n" s="7750">
         <v>0.5790632340878823</v>
       </c>
-      <c r="J18" t="n" s="6653">
+      <c r="J18" t="n" s="7778">
         <v>1.8603480531392984</v>
       </c>
-      <c r="K18" t="n" s="6681">
+      <c r="K18" t="n" s="7806">
         <v>1.3176740701167522</v>
       </c>
-      <c r="L18" t="n" s="6709">
+      <c r="L18" t="n" s="7834">
         <v>0.3787209157239235</v>
       </c>
-      <c r="M18" t="n" s="6736">
+      <c r="M18" t="n" s="7861">
         <v>0.17855212172118876</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n" s="6402">
+      <c r="A19" t="n" s="7527">
         <v>11.0</v>
       </c>
-      <c r="B19" t="s" s="6430">
+      <c r="B19" t="s" s="7555">
         <v>29</v>
       </c>
-      <c r="C19" t="s" s="6458">
+      <c r="C19" t="s" s="7583">
         <v>44</v>
       </c>
-      <c r="D19" t="n" s="6486">
+      <c r="D19" t="n" s="7611">
         <v>0.3245315478692759</v>
       </c>
-      <c r="E19" t="n" s="6514">
+      <c r="E19" t="n" s="7639">
         <v>0.1053558793431698</v>
       </c>
-      <c r="F19" t="n" s="6542">
+      <c r="F19" t="n" s="7667">
         <v>1.6576721854718859</v>
       </c>
-      <c r="G19" t="n" s="6570">
+      <c r="G19" t="n" s="7695">
         <v>0.616067046432869</v>
       </c>
-      <c r="H19" t="n" s="6598">
+      <c r="H19" t="n" s="7723">
         <v>-2.630612308686348</v>
       </c>
-      <c r="I19" t="n" s="6626">
+      <c r="I19" t="n" s="7751">
         <v>0.5395511501011909</v>
       </c>
-      <c r="J19" t="n" s="6654">
+      <c r="J19" t="n" s="7779">
         <v>0.21044261833104963</v>
       </c>
-      <c r="K19" t="n" s="6682">
+      <c r="K19" t="n" s="7807">
         <v>0.11130261869377167</v>
       </c>
-      <c r="L19" t="n" s="6710">
+      <c r="L19" t="n" s="7835">
         <v>0.05071550812306075</v>
       </c>
-      <c r="M19" t="n" s="6737">
+      <c r="M19" t="n" s="7862">
         <v>0.03924720705808206</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n" s="6403">
+      <c r="A20" t="n" s="7528">
         <v>10.0</v>
       </c>
-      <c r="B20" t="s" s="6431">
+      <c r="B20" t="s" s="7556">
         <v>30</v>
       </c>
-      <c r="C20" t="s" s="6459">
+      <c r="C20" t="s" s="7584">
         <v>45</v>
       </c>
-      <c r="D20" t="n" s="6487">
+      <c r="D20" t="n" s="7612">
         <v>3.425838909459529</v>
       </c>
-      <c r="E20" t="n" s="6515">
+      <c r="E20" t="n" s="7640">
         <v>0.5852828961651693</v>
       </c>
-      <c r="F20" t="n" s="6543">
+      <c r="F20" t="n" s="7668">
         <v>0.8495189900837785</v>
       </c>
-      <c r="G20" t="n" s="6571">
+      <c r="G20" t="n" s="7696">
         <v>0.02823089001502664</v>
       </c>
-      <c r="H20" t="n" s="6599">
+      <c r="H20" t="n" s="7724">
         <v>-0.5262938885131744</v>
       </c>
-      <c r="I20" t="n" s="6627">
+      <c r="I20" t="n" s="7752">
         <v>0.035146220551058815</v>
       </c>
-      <c r="J20" t="n" s="6655">
+      <c r="J20" t="n" s="7780">
         <v>2.0873560574771477</v>
       </c>
-      <c r="K20" t="n" s="6683">
+      <c r="K20" t="n" s="7808">
         <v>0.127892086963247</v>
       </c>
-      <c r="L20" t="n" s="6711">
+      <c r="L20" t="n" s="7836">
         <v>2.4004655025139</v>
       </c>
-      <c r="M20" t="n" s="6738">
+      <c r="M20" t="n" s="7863">
         <v>0.16342584937410348</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n" s="6404">
+      <c r="A21" t="n" s="7529">
         <v>9.0</v>
       </c>
-      <c r="B21" t="s" s="6432">
+      <c r="B21" t="s" s="7557">
         <v>31</v>
       </c>
-      <c r="C21" t="s" s="6460">
+      <c r="C21" t="s" s="7585">
         <v>45</v>
       </c>
-      <c r="D21" t="n" s="6488">
+      <c r="D21" t="n" s="7613">
         <v>0.8034755451863018</v>
       </c>
-      <c r="E21" t="n" s="6516">
+      <c r="E21" t="n" s="7641">
         <v>0.4679590175619423</v>
       </c>
-      <c r="F21" t="n" s="6544">
+      <c r="F21" t="n" s="7669">
         <v>0.7391508700248197</v>
       </c>
-      <c r="G21" t="n" s="6572">
+      <c r="G21" t="n" s="7697">
         <v>0.05742518207753975</v>
       </c>
-      <c r="H21" t="n" s="6600">
+      <c r="H21" t="n" s="7725">
         <v>-2.2530671762294925</v>
       </c>
-      <c r="I21" t="n" s="6628">
+      <c r="I21" t="n" s="7753">
         <v>5.048485575618147</v>
       </c>
-      <c r="J21" t="n" s="6656">
+      <c r="J21" t="n" s="7781">
         <v>10.115619176265325</v>
       </c>
-      <c r="K21" t="n" s="6684">
+      <c r="K21" t="n" s="7809">
         <v>36.43278729708886</v>
       </c>
-      <c r="L21" t="n" s="6712">
+      <c r="L21" t="n" s="7837">
         <v>2.526727426204768</v>
       </c>
-      <c r="M21" t="n" s="6739">
+      <c r="M21" t="n" s="7864">
         <v>7.144121886885432</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n" s="6405">
+      <c r="A22" t="n" s="7530">
         <v>8.0</v>
       </c>
-      <c r="B22" t="s" s="6433">
+      <c r="B22" t="s" s="7558">
         <v>32</v>
       </c>
-      <c r="C22" t="s" s="6461">
+      <c r="C22" t="s" s="7586">
         <v>45</v>
       </c>
-      <c r="D22" t="n" s="6489">
+      <c r="D22" t="n" s="7614">
         <v>2.2831716227774868</v>
       </c>
-      <c r="E22" t="n" s="6517">
+      <c r="E22" t="n" s="7642">
         <v>1.1061092203692675</v>
       </c>
-      <c r="F22" t="n" s="6545">
+      <c r="F22" t="n" s="7670">
         <v>0.5869189934977919</v>
       </c>
-      <c r="G22" t="n" s="6573">
+      <c r="G22" t="n" s="7698">
         <v>0.062942413028205</v>
       </c>
-      <c r="H22" t="n" s="6601">
+      <c r="H22" t="n" s="7726">
         <v>-0.8347758255832176</v>
       </c>
-      <c r="I22" t="n" s="6629">
+      <c r="I22" t="n" s="7754">
         <v>0.08671914144825671</v>
       </c>
-      <c r="J22" t="n" s="6657">
+      <c r="J22" t="n" s="7782">
         <v>2.0261478060963793</v>
       </c>
-      <c r="K22" t="n" s="6685">
+      <c r="K22" t="n" s="7810">
         <v>0.27595351014443</v>
       </c>
-      <c r="L22" t="n" s="6713">
+      <c r="L22" t="n" s="7838">
         <v>1.7364517245279665</v>
       </c>
-      <c r="M22" t="n" s="6740">
+      <c r="M22" t="n" s="7865">
         <v>0.24478297407971028</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n" s="6406">
+      <c r="A23" t="n" s="7531">
         <v>7.0</v>
       </c>
-      <c r="B23" t="s" s="6434">
+      <c r="B23" t="s" s="7559">
         <v>33</v>
       </c>
-      <c r="C23" t="s" s="6462">
+      <c r="C23" t="s" s="7587">
         <v>46</v>
       </c>
-      <c r="D23" t="n" s="6490">
+      <c r="D23" t="n" s="7615">
         <v>2.5221107811488483</v>
       </c>
-      <c r="E23" t="n" s="6518">
+      <c r="E23" t="n" s="7643">
         <v>0.49722489280736143</v>
       </c>
-      <c r="F23" t="n" s="6546">
+      <c r="F23" t="n" s="7671">
         <v>0.914738911765205</v>
       </c>
-      <c r="G23" t="n" s="6574">
+      <c r="G23" t="n" s="7699">
         <v>0.02337862892498165</v>
       </c>
-      <c r="H23" t="n" s="6602">
+      <c r="H23" t="n" s="7727">
         <v>0.01130510719446272</v>
       </c>
-      <c r="I23" t="n" s="6630">
+      <c r="I23" t="n" s="7755">
         <v>0.0247295797948841</v>
       </c>
-      <c r="J23" t="n" s="6658">
+      <c r="J23" t="n" s="7783">
         <v>9.633034893121488</v>
       </c>
-      <c r="K23" t="n" s="6686">
+      <c r="K23" t="n" s="7811">
         <v>0.7612713846485403</v>
       </c>
       <c r="L23" s="3712"/>
       <c r="M23" s="3740"/>
     </row>
     <row r="24">
-      <c r="A24" t="n" s="6407">
+      <c r="A24" t="n" s="7532">
         <v>6.0</v>
       </c>
-      <c r="B24" t="s" s="6435">
+      <c r="B24" t="s" s="7560">
         <v>34</v>
       </c>
-      <c r="C24" t="s" s="6463">
+      <c r="C24" t="s" s="7588">
         <v>46</v>
       </c>
-      <c r="D24" t="n" s="6491">
+      <c r="D24" t="n" s="7616">
         <v>2.415750260465464</v>
       </c>
-      <c r="E24" t="n" s="6519">
+      <c r="E24" t="n" s="7644">
         <v>0.45738466947825357</v>
       </c>
-      <c r="F24" t="n" s="6547">
+      <c r="F24" t="n" s="7672">
         <v>0.5114022977878501</v>
       </c>
-      <c r="G24" t="n" s="6575">
+      <c r="G24" t="n" s="7700">
         <v>0.024912359167749153</v>
       </c>
-      <c r="H24" t="n" s="6603">
+      <c r="H24" t="n" s="7728">
         <v>-0.4102694265196758</v>
       </c>
-      <c r="I24" t="n" s="6631">
+      <c r="I24" t="n" s="7756">
         <v>0.027850819345537153</v>
       </c>
-      <c r="J24" t="n" s="6659">
+      <c r="J24" t="n" s="7784">
         <v>0.813174499749302</v>
       </c>
-      <c r="K24" t="n" s="6687">
+      <c r="K24" t="n" s="7812">
         <v>0.0706100970812528</v>
       </c>
-      <c r="L24" t="n" s="6714">
+      <c r="L24" t="n" s="7839">
         <v>0.8908325785550907</v>
       </c>
-      <c r="M24" t="n" s="6741">
+      <c r="M24" t="n" s="7866">
         <v>0.08082413218830571</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n" s="6408">
+      <c r="A25" t="n" s="7533">
         <v>5.0</v>
       </c>
-      <c r="B25" t="s" s="6436">
+      <c r="B25" t="s" s="7561">
         <v>35</v>
       </c>
-      <c r="C25" t="s" s="6464">
+      <c r="C25" t="s" s="7589">
         <v>46</v>
       </c>
-      <c r="D25" t="n" s="6492">
+      <c r="D25" t="n" s="7617">
         <v>2.678814142770171</v>
       </c>
-      <c r="E25" t="n" s="6520">
+      <c r="E25" t="n" s="7645">
         <v>0.736787835109376</v>
       </c>
-      <c r="F25" t="n" s="6548">
+      <c r="F25" t="n" s="7673">
         <v>0.6266866786985628</v>
       </c>
-      <c r="G25" t="n" s="6576">
+      <c r="G25" t="n" s="7701">
         <v>0.01689329404006542</v>
       </c>
-      <c r="H25" t="n" s="6604">
+      <c r="H25" t="n" s="7729">
         <v>-0.26272266899177427</v>
       </c>
-      <c r="I25" t="n" s="6632">
+      <c r="I25" t="n" s="7757">
         <v>0.09801638591351326</v>
       </c>
-      <c r="J25" t="n" s="6660">
+      <c r="J25" t="n" s="7785">
         <v>1.212106145207655</v>
       </c>
-      <c r="K25" t="n" s="6688">
+      <c r="K25" t="n" s="7813">
         <v>0.15591223334824839</v>
       </c>
-      <c r="L25" t="n" s="6715">
+      <c r="L25" t="n" s="7840">
         <v>1.676798861769315</v>
       </c>
-      <c r="M25" t="n" s="6742">
+      <c r="M25" t="n" s="7867">
         <v>0.3291167759170832</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n" s="6409">
+      <c r="A26" t="n" s="7534">
         <v>4.0</v>
       </c>
-      <c r="B26" t="s" s="6437">
+      <c r="B26" t="s" s="7562">
         <v>36</v>
       </c>
-      <c r="C26" t="s" s="6465">
+      <c r="C26" t="s" s="7590">
         <v>47</v>
       </c>
-      <c r="D26" t="n" s="6493">
+      <c r="D26" t="n" s="7618">
         <v>3.3658150831023614</v>
       </c>
-      <c r="E26" t="n" s="6521">
+      <c r="E26" t="n" s="7646">
         <v>0.49463740398437384</v>
       </c>
-      <c r="F26" t="n" s="6549">
+      <c r="F26" t="n" s="7674">
         <v>0.8701256525729906</v>
       </c>
-      <c r="G26" t="n" s="6577">
+      <c r="G26" t="n" s="7702">
         <v>0.036815919887517826</v>
       </c>
-      <c r="H26" t="n" s="6605">
+      <c r="H26" t="n" s="7730">
         <v>-1.6076479359601867</v>
       </c>
-      <c r="I26" t="n" s="6633">
+      <c r="I26" t="n" s="7758">
         <v>0.043359496255559266</v>
       </c>
-      <c r="J26" t="n" s="6661">
+      <c r="J26" t="n" s="7786">
         <v>0.4734868616681005</v>
       </c>
-      <c r="K26" t="n" s="6689">
+      <c r="K26" t="n" s="7814">
         <v>0.01950558547432978</v>
       </c>
-      <c r="L26" t="n" s="6716">
+      <c r="L26" t="n" s="7841">
         <v>0.3945455160601586</v>
       </c>
-      <c r="M26" t="n" s="6743">
+      <c r="M26" t="n" s="7868">
         <v>0.017296555602563716</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n" s="6410">
+      <c r="A27" t="n" s="7535">
         <v>3.0</v>
       </c>
-      <c r="B27" t="s" s="6438">
+      <c r="B27" t="s" s="7563">
         <v>37</v>
       </c>
-      <c r="C27" t="s" s="6466">
+      <c r="C27" t="s" s="7591">
         <v>47</v>
       </c>
-      <c r="D27" t="n" s="6494">
+      <c r="D27" t="n" s="7619">
         <v>1.2813262900347435</v>
       </c>
-      <c r="E27" t="n" s="6522">
+      <c r="E27" t="n" s="7647">
         <v>0.2558201057242903</v>
       </c>
-      <c r="F27" t="n" s="6550">
+      <c r="F27" t="n" s="7675">
         <v>0.5252902452202378</v>
       </c>
-      <c r="G27" t="n" s="6578">
+      <c r="G27" t="n" s="7703">
         <v>0.06248761566092279</v>
       </c>
-      <c r="H27" t="n" s="6606">
+      <c r="H27" t="n" s="7731">
         <v>-1.3215131684765382</v>
       </c>
-      <c r="I27" t="n" s="6634">
+      <c r="I27" t="n" s="7759">
         <v>0.09244253128922197</v>
       </c>
-      <c r="J27" t="n" s="6662">
+      <c r="J27" t="n" s="7787">
         <v>0.5107248346554183</v>
       </c>
-      <c r="K27" t="n" s="6690">
+      <c r="K27" t="n" s="7815">
         <v>0.07739324353191146</v>
       </c>
-      <c r="L27" t="n" s="6717">
+      <c r="L27" t="n" s="7842">
         <v>0.24859126354956088</v>
       </c>
-      <c r="M27" t="n" s="6744">
+      <c r="M27" t="n" s="7869">
         <v>0.04227941659220342</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n" s="6411">
+      <c r="A28" t="n" s="7536">
         <v>2.0</v>
       </c>
-      <c r="B28" t="s" s="6439">
+      <c r="B28" t="s" s="7564">
         <v>38</v>
       </c>
-      <c r="C28" t="s" s="6467">
+      <c r="C28" t="s" s="7592">
         <v>47</v>
       </c>
-      <c r="D28" t="n" s="6495">
+      <c r="D28" t="n" s="7620">
         <v>4.114202290695197</v>
       </c>
-      <c r="E28" t="n" s="6523">
+      <c r="E28" t="n" s="7648">
         <v>0.4793623130122969</v>
       </c>
-      <c r="F28" t="n" s="6551">
+      <c r="F28" t="n" s="7676">
         <v>0.6242432820524049</v>
       </c>
-      <c r="G28" t="n" s="6579">
+      <c r="G28" t="n" s="7704">
         <v>0.018339314433905955</v>
       </c>
-      <c r="H28" t="n" s="6607">
+      <c r="H28" t="n" s="7732">
         <v>-1.9310442718339769</v>
       </c>
-      <c r="I28" t="n" s="6635">
+      <c r="I28" t="n" s="7760">
         <v>0.04599018845609544</v>
       </c>
-      <c r="J28" t="n" s="6663">
+      <c r="J28" t="n" s="7788">
         <v>0.3676238747642831</v>
       </c>
-      <c r="K28" t="n" s="6691">
+      <c r="K28" t="n" s="7816">
         <v>0.008058671931636773</v>
       </c>
-      <c r="L28" t="n" s="6718">
+      <c r="L28" t="n" s="7843">
         <v>0.2793814227521176</v>
       </c>
-      <c r="M28" t="n" s="6745">
+      <c r="M28" t="n" s="7870">
         <v>0.010458571868210885</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n" s="6412">
+      <c r="A29" t="n" s="7537">
         <v>1.0</v>
       </c>
-      <c r="B29" t="s" s="6440">
+      <c r="B29" t="s" s="7565">
         <v>39</v>
       </c>
-      <c r="C29" t="s" s="6468">
+      <c r="C29" t="s" s="7593">
         <v>47</v>
       </c>
-      <c r="D29" t="n" s="6496">
+      <c r="D29" t="n" s="7621">
         <v>1.9811231790394546</v>
       </c>
-      <c r="E29" t="n" s="6524">
+      <c r="E29" t="n" s="7649">
         <v>0.3480091942307529</v>
       </c>
-      <c r="F29" t="n" s="6552">
+      <c r="F29" t="n" s="7677">
         <v>0.6233986162924658</v>
       </c>
-      <c r="G29" t="n" s="6580">
+      <c r="G29" t="n" s="7705">
         <v>0.06992242431003592</v>
       </c>
-      <c r="H29" t="n" s="6608">
+      <c r="H29" t="n" s="7733">
         <v>-1.650658180153627</v>
       </c>
-      <c r="I29" t="n" s="6636">
+      <c r="I29" t="n" s="7761">
         <v>0.0892237016620078</v>
       </c>
-      <c r="J29" t="n" s="6664">
+      <c r="J29" t="n" s="7789">
         <v>0.5260765825929057</v>
       </c>
-      <c r="K29" t="n" s="6692">
+      <c r="K29" t="n" s="7817">
         <v>0.0635851313687637</v>
       </c>
-      <c r="L29" t="n" s="6719">
+      <c r="L29" t="n" s="7844">
         <v>0.32180188697299306</v>
       </c>
-      <c r="M29" t="n" s="6746">
+      <c r="M29" t="n" s="7871">
         <v>0.042809887026369765</v>
       </c>
     </row>
